--- a/data/trans_camb/P37_R2-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P37_R2-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,56</t>
+          <t>4,78</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,32</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-8,32</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-4,76</t>
+          <t>-3,73</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-8,7</t>
+          <t>0,81</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-9,28</t>
+          <t>-6,73</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-1,52</t>
+          <t>-8,37</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-4,95</t>
+          <t>0,83</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-8,81</t>
+          <t>1,69</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>7,57</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-0,77</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-4,18</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>0,72</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>-1,2</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>4,12</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-10,57; 12,48</t>
+          <t>-7,53; 17,83</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-14,58; 10,21</t>
+          <t>-14,39; 13,16</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-20,9; 3,77</t>
+          <t>-13,3; 12,2</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-15,55; 5,34</t>
+          <t>-18,5; 9,05</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-19,35; 2,43</t>
+          <t>-14,54; 13,8</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-20,04; 2,53</t>
+          <t>-17,73; 4,11</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-9,1; 6,0</t>
+          <t>-19,73; 2,49</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-13,8; 3,2</t>
+          <t>-11,34; 12,56</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-17,88; -0,96</t>
+          <t>-9,12; 13,27</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-5,27; 18,92</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-9,24; 8,12</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-12,63; 5,13</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-7,4; 9,8</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-11,97; 7,63</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-6,04; 12,69</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,25%</t>
+          <t>7,35%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-1,9%</t>
+          <t>0,05%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-12,03%</t>
+          <t>0,6%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-6,51%</t>
+          <t>-5,7%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-11,91%</t>
+          <t>1,32%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-12,71%</t>
+          <t>-9,77%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-2,14%</t>
+          <t>-12,16%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-6,97%</t>
+          <t>1,21%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-12,4%</t>
+          <t>2,42%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>11,87%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-1,16%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-6,25%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>1,08%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>-1,77%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>6,61%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-14,01; 19,43</t>
+          <t>-10,34; 31,15</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-19,54; 15,84</t>
+          <t>-20,24; 23,12</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-28,65; 6,11</t>
+          <t>-18,88; 20,72</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-19,54; 8,02</t>
+          <t>-25,71; 15,36</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-24,57; 3,74</t>
+          <t>-21,88; 26,01</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-26,12; 3,75</t>
+          <t>-23,83; 6,86</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-12,06; 8,95</t>
+          <t>-26,97; 3,77</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-18,34; 4,95</t>
+          <t>-15,12; 20,15</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-24,06; -1,4</t>
+          <t>-12,29; 20,78</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-7,4; 33,57</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-13,14; 13,47</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-18,08; 8,22</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-10,51; 15,64</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-16,87; 11,98</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-9,08; 22,48</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-2,8</t>
+          <t>-2,9</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,9</t>
+          <t>-2,85</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-9,37</t>
+          <t>-15,45</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-5,97</t>
+          <t>10,91</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-6,29</t>
+          <t>4,04</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-13,04</t>
+          <t>-5,82</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-4,32</t>
+          <t>-6,2</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-4,52</t>
+          <t>-8,72</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-11,13</t>
+          <t>-2,24</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>2,32</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-4,29</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-4,46</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>-12,37</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>4,74</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>3,18</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-14,85; 10,03</t>
+          <t>-16,5; 10,73</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-16,21; 9,8</t>
+          <t>-17,22; 11,27</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-23,95; 6,08</t>
+          <t>-34,22; 0,06</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-15,76; 3,3</t>
+          <t>-4,21; 27,79</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-15,58; 2,72</t>
+          <t>-9,55; 18,23</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-23,03; -2,06</t>
+          <t>-14,79; 2,97</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-12,76; 3,02</t>
+          <t>-15,0; 2,55</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-12,58; 4,23</t>
+          <t>-19,13; 1,35</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-20,86; -2,45</t>
+          <t>-12,45; 9,49</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-8,64; 12,57</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-12,51; 4,6</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-12,83; 4,04</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-24,06; -2,19</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-5,43; 15,31</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-5,64; 12,23</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-4,1%</t>
+          <t>-4,28%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-4,23%</t>
+          <t>-4,22%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-13,69%</t>
+          <t>-22,84%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-8,29%</t>
+          <t>20,91%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-8,73%</t>
+          <t>6,85%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-18,1%</t>
+          <t>-8,05%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-6,16%</t>
+          <t>-8,58%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-6,44%</t>
+          <t>-12,06%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-15,86%</t>
+          <t>-3,52%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>3,93%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-6,14%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-6,38%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>-17,71%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>8,24%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>5,38%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-19,51; 16,62</t>
+          <t>-21,81; 17,67</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-21,89; 15,95</t>
+          <t>-23,18; 19,49</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-33,32; 9,75</t>
+          <t>-45,95; -0,71</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-20,37; 4,66</t>
+          <t>-6,92; 68,1</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-20,54; 4,0</t>
+          <t>-14,26; 34,75</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-30,43; -3,28</t>
+          <t>-19,24; 4,42</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-17,01; 4,71</t>
+          <t>-19,79; 3,68</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-17,52; 6,4</t>
+          <t>-24,6; 1,67</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-28,26; -3,85</t>
+          <t>-18,3; 16,15</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-13,32; 24,56</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-16,69; 6,9</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-17,7; 6,05</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-33,3; -4,04</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-8,69; 30,76</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-8,87; 23,06</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1352,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,53</t>
+          <t>3,77</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>4,75</t>
+          <t>6,91</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-4,96</t>
+          <t>0,32</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,91</t>
+          <t>-5,83</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,25</t>
+          <t>-2,61</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-2,91</t>
+          <t>1,47</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>2,21</t>
+          <t>-0,92</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>2,42</t>
+          <t>-2,76</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-3,88</t>
+          <t>-5,41</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-4,0</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>2,59</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>2,9</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>-1,25</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>-5,53</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>-3,28</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1435,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-8,33; 10,98</t>
+          <t>-5,66; 14,16</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,55; 13,93</t>
+          <t>-1,87; 17,29</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-15,43; 6,86</t>
+          <t>-10,0; 11,12</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,03; 10,94</t>
+          <t>-16,03; 4,87</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-7,79; 8,55</t>
+          <t>-13,18; 6,99</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-11,83; 6,4</t>
+          <t>-5,9; 9,4</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-4,12; 7,73</t>
+          <t>-8,16; 6,72</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 8,64</t>
+          <t>-12,06; 4,5</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-10,71; 2,48</t>
+          <t>-14,28; 3,64</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-13,05; 4,83</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-3,11; 8,72</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-3,47; 8,53</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-7,87; 4,94</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-12,2; 1,76</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>-10,43; 3,39</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1518,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2,32%</t>
+          <t>5,9%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>7,2%</t>
+          <t>10,81%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-7,52%</t>
+          <t>0,5%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>4,65%</t>
+          <t>-9,07%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,41%</t>
+          <t>-4,28%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-4,65%</t>
+          <t>2,3%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>3,44%</t>
+          <t>-1,45%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>3,77%</t>
+          <t>-4,31%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-6,04%</t>
+          <t>-8,86%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-6,69%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>4,05%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>4,54%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>-1,96%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>-8,82%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>-5,43%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1601,77 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-11,54; 17,99</t>
+          <t>-8,25; 24,88</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-6,45; 23,35</t>
+          <t>-2,32; 30,57</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-21,19; 12,08</t>
+          <t>-14,51; 18,7</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-7,46; 18,94</t>
+          <t>-23,5; 8,26</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-11,43; 14,94</t>
+          <t>-20,2; 12,29</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-17,51; 11,48</t>
+          <t>-8,73; 16,11</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-6,13; 12,81</t>
+          <t>-12,03; 11,7</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-5,31; 14,37</t>
+          <t>-17,94; 7,45</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-15,5; 4,38</t>
+          <t>-21,95; 6,46</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-20,9; 8,82</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-4,57; 14,38</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-4,94; 14,4</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-11,88; 8,1</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-18,6; 3,01</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>-16,51; 5,81</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,06</t>
+          <t>2,35</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,19</t>
+          <t>-1,27</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-2,06</t>
+          <t>-2,46</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-5,52</t>
+          <t>-4,12</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-11,4</t>
+          <t>-5,22</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-8,04</t>
+          <t>-4,81</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-1,83</t>
+          <t>-10,94</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-6,41</t>
+          <t>-9,45</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-5,0</t>
+          <t>-0,34</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>-2,35</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-1,31</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>-6,21</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>-5,98</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>-2,24</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>-3,88</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,93; 10,76</t>
+          <t>-5,89; 10,97</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-9,71; 7,53</t>
+          <t>-10,44; 7,09</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-11,67; 7,85</t>
+          <t>-12,37; 6,67</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-13,07; 1,64</t>
+          <t>-13,4; 5,35</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-18,55; -3,61</t>
+          <t>-15,37; 4,7</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-17,07; -0,15</t>
+          <t>-12,85; 2,08</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-7,97; 3,51</t>
+          <t>-19,88; -4,28</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-12,07; -0,69</t>
+          <t>-17,93; -2,15</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-11,51; 1,57</t>
+          <t>-7,85; 8,4</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-11,17; 7,08</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-6,57; 4,6</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-11,5; -0,31</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-12,04; -0,36</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-8,6; 4,14</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-10,01; 3,01</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>3,35%</t>
+          <t>3,86%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-1,94%</t>
+          <t>-2,09%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-3,36%</t>
+          <t>-4,04%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-8,58%</t>
+          <t>-7,06%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-17,71%</t>
+          <t>-8,79%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-12,49%</t>
+          <t>-7,54%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-2,91%</t>
+          <t>-17,16%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-10,18%</t>
+          <t>-14,82%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-7,95%</t>
+          <t>-0,63%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>-4,18%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-2,11%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>-9,96%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>-9,6%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>-3,97%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>-6,7%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1937,77 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-8,91; 18,93</t>
+          <t>-8,89; 19,5</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-15,05; 13,31</t>
+          <t>-15,54; 12,7</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-17,76; 13,99</t>
+          <t>-19,76; 11,49</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-19,52; 2,53</t>
+          <t>-21,45; 10,06</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-27,23; -6,03</t>
+          <t>-23,75; 8,74</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-25,15; -0,27</t>
+          <t>-18,95; 3,75</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-11,94; 5,78</t>
+          <t>-28,94; -6,96</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-18,34; -1,16</t>
+          <t>-25,96; -3,43</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-17,39; 2,85</t>
+          <t>-13,89; 17,04</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-17,79; 13,96</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-10,06; 8,08</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-17,58; -0,44</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-18,5; -0,63</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-14,77; 7,62</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-16,2; 5,39</t>
         </is>
       </c>
     </row>
@@ -1496,47 +2024,77 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>4,26</t>
+          <t>3,03</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-2,19</t>
+          <t>-2,89</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-10,4</t>
+          <t>-2,47</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-2,94</t>
+          <t>-12,51</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-2,64</t>
+          <t>-4,09</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-16,5</t>
+          <t>-3,37</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,64</t>
+          <t>-3,02</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-2,44</t>
+          <t>-8,58</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-13,69</t>
+          <t>0,7</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>9,05</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>-0,2</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>-3,0</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>-5,68</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>-5,72</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>2,77</t>
         </is>
       </c>
     </row>
@@ -1549,47 +2107,77 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-4,42; 13,32</t>
+          <t>-6,46; 11,85</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-11,01; 7,19</t>
+          <t>-11,74; 7,17</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-21,36; -0,14</t>
+          <t>-12,55; 7,33</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-12,22; 6,63</t>
+          <t>-22,57; -2,43</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-11,44; 6,04</t>
+          <t>-15,24; 5,23</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-26,03; -6,99</t>
+          <t>-12,31; 5,76</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-6,44; 7,34</t>
+          <t>-13,05; 5,59</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-9,21; 3,93</t>
+          <t>-18,59; 1,56</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-20,3; -5,83</t>
+          <t>-10,01; 9,92</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-1,1; 18,59</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-7,01; 5,92</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-9,18; 3,89</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>-12,83; 1,04</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>-13,44; 1,38</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>-4,65; 8,48</t>
         </is>
       </c>
     </row>
@@ -1602,47 +2190,77 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>6,43%</t>
+          <t>4,53%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-3,31%</t>
+          <t>-4,33%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-15,7%</t>
+          <t>-3,7%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-4,85%</t>
+          <t>-19,46%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-4,36%</t>
+          <t>-7,32%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-27,27%</t>
+          <t>-5,53%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>1,0%</t>
+          <t>-4,96%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-3,85%</t>
+          <t>-14,08%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-21,61%</t>
+          <t>1,34%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>20,58%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>-0,31%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>-4,7%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>-8,9%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>-9,83%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>5,58%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +2273,77 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-6,07; 22,84</t>
+          <t>-9,19; 19,44</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-15,31; 11,63</t>
+          <t>-16,5; 11,64</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-30,73; -0,42</t>
+          <t>-17,51; 12,25</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-18,49; 11,85</t>
+          <t>-33,35; -3,54</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-17,9; 10,51</t>
+          <t>-25,12; 10,56</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-40,42; -12,42</t>
+          <t>-18,55; 10,34</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-9,69; 12,39</t>
+          <t>-19,86; 9,94</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-13,68; 6,62</t>
+          <t>-27,94; 3,16</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-30,75; -10,06</t>
+          <t>-17,26; 20,82</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-2,01; 47,98</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-10,4; 9,71</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-13,78; 6,34</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>-19,14; 1,56</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>-21,93; 2,36</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>-8,47; 18,47</t>
         </is>
       </c>
     </row>
@@ -1712,47 +2360,77 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-0,21</t>
+          <t>-0,08</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-0,92</t>
+          <t>-0,8</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>3,12</t>
+          <t>2,13</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>7,05</t>
+          <t>-3,53</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>11,29</t>
+          <t>-4,7</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>5,27</t>
+          <t>6,11</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>3,86</t>
+          <t>8,93</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>5,92</t>
+          <t>4,96</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>4,19</t>
+          <t>-5,21</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>-4,27</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>3,4</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>4,66</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>3,75</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>-4,56</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>-4,41</t>
         </is>
       </c>
     </row>
@@ -1765,47 +2443,77 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-12,2; 12,27</t>
+          <t>-11,08; 10,68</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-11,91; 11,57</t>
+          <t>-12,14; 10,93</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-9,84; 15,14</t>
+          <t>-10,39; 13,27</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-3,45; 16,02</t>
+          <t>-13,77; 9,26</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>1,63; 22,47</t>
+          <t>-16,31; 6,82</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-6,22; 16,68</t>
+          <t>-3,77; 14,95</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-4,42; 11,47</t>
+          <t>-0,84; 18,59</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 14,75</t>
+          <t>-8,69; 15,64</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-4,2; 12,59</t>
+          <t>-17,19; 6,63</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>-16,77; 8,79</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>-4,13; 10,54</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>-2,58; 11,29</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>-4,69; 12,27</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>-13,18; 3,88</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>-12,5; 4,73</t>
         </is>
       </c>
     </row>
@@ -1818,47 +2526,77 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-0,35%</t>
+          <t>-0,14%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-1,55%</t>
+          <t>-1,35%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>5,25%</t>
+          <t>3,59%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>14,76%</t>
+          <t>-5,76%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>23,62%</t>
+          <t>-7,52%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>11,02%</t>
+          <t>12,45%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>7,3%</t>
+          <t>18,21%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>11,19%</t>
+          <t>10,12%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>7,93%</t>
+          <t>-9,64%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>-8,06%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>6,35%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>8,71%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>7,01%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>-7,98%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>-7,72%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +2609,77 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-19,04; 23,63</t>
+          <t>-17,12; 20,04</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-18,26; 23,26</t>
+          <t>-19,64; 21,17</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-15,03; 28,75</t>
+          <t>-16,5; 25,16</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-6,71; 38,8</t>
+          <t>-20,99; 17,0</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>2,83; 52,11</t>
+          <t>-23,58; 12,24</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-11,81; 40,76</t>
+          <t>-7,26; 33,94</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-7,45; 24,29</t>
+          <t>-1,65; 40,92</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-3,83; 30,23</t>
+          <t>-16,45; 35,42</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-7,75; 24,74</t>
+          <t>-29,17; 13,18</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>-28,62; 18,91</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>-7,08; 20,96</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>-4,22; 22,78</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>-8,16; 24,71</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>-21,24; 7,59</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>-20,41; 9,37</t>
         </is>
       </c>
     </row>
@@ -1928,47 +2696,77 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>1,1</t>
+          <t>1,87</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-0,34</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-5,18</t>
+          <t>-2,99</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-0,86</t>
+          <t>-3,06</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-2,27</t>
+          <t>-2,14</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-6,95</t>
+          <t>-1,46</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>-2,78</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
+          <t>-3,62</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>-2,18</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>0,91</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>0,18</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
           <t>-1,34</t>
         </is>
       </c>
-      <c r="K28" s="2" t="inlineStr">
-        <is>
-          <t>-6,04</t>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>-3,31</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>-2,6</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>-0,62</t>
         </is>
       </c>
     </row>
@@ -1981,47 +2779,77 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 5,66</t>
+          <t>-3,05; 5,9</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-4,6; 4,56</t>
+          <t>-4,25; 4,51</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-9,79; -0,73</t>
+          <t>-8,4; 1,98</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-4,37; 2,72</t>
+          <t>-8,56; 1,96</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-6,07; 1,83</t>
+          <t>-7,09; 2,94</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-11,24; -2,92</t>
+          <t>-5,07; 2,43</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-3,03; 2,81</t>
+          <t>-6,61; 1,0</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-4,29; 1,61</t>
+          <t>-7,72; 0,7</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-9,18; -2,84</t>
+          <t>-6,31; 2,2</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>-3,46; 5,64</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>-2,49; 3,13</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>-4,14; 1,5</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>-6,93; -0,34</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>-6,16; 0,66</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>-3,82; 2,74</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2862,77 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>1,69%</t>
+          <t>2,94%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-0,53%</t>
+          <t>0,31%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-7,97%</t>
+          <t>-4,69%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-1,37%</t>
+          <t>-5,04%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-3,63%</t>
+          <t>-3,58%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-11,11%</t>
+          <t>-2,34%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>0,16%</t>
+          <t>-4,46%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>-2,1%</t>
+          <t>-5,81%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>-9,47%</t>
+          <t>-3,71%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>1,64%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>0,28%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>-2,12%</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>-5,25%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>-4,36%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>-1,08%</t>
         </is>
       </c>
     </row>
@@ -2087,63 +2945,100 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-5,03; 9,11</t>
+          <t>-4,58; 9,63</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-6,79; 7,38</t>
+          <t>-6,46; 7,18</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-14,54; -1,12</t>
+          <t>-12,62; 3,19</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-6,72; 4,5</t>
+          <t>-13,36; 3,42</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-9,49; 3,04</t>
+          <t>-11,36; 5,06</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-17,58; -4,85</t>
+          <t>-7,77; 4,16</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-4,59; 4,54</t>
+          <t>-10,17; 1,75</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-6,57; 2,54</t>
+          <t>-12,05; 1,16</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-14,16; -4,64</t>
+          <t>-10,42; 4,04</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>-5,98; 10,49</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>-3,81; 5,07</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>-6,43; 2,45</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>-10,7; -0,56</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>-9,93; 1,13</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>-6,48; 4,83</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
